--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Ldlr.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H2">
         <v>0.012093</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N2">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q2">
-        <v>0.009669709259666669</v>
+        <v>0.01244502454266666</v>
       </c>
       <c r="R2">
-        <v>0.08702738333700002</v>
+        <v>0.112005220884</v>
       </c>
       <c r="S2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="T2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H3">
         <v>0.012093</v>
@@ -623,10 +623,10 @@
         <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q3">
         <v>0.022904516883</v>
@@ -635,10 +635,10 @@
         <v>0.206140651947</v>
       </c>
       <c r="S3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="T3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H4">
         <v>0.012093</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N4">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q4">
-        <v>0.02136464800966667</v>
+        <v>0.019443250361</v>
       </c>
       <c r="R4">
-        <v>0.192281832087</v>
+        <v>0.174989253249</v>
       </c>
       <c r="S4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="T4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H5">
         <v>0.012093</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N5">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q5">
-        <v>0.04907546324666667</v>
+        <v>0.02606895131433333</v>
       </c>
       <c r="R5">
-        <v>0.44167916922</v>
+        <v>0.234620561829</v>
       </c>
       <c r="S5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="T5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
     </row>
   </sheetData>
